--- a/result.xlsx
+++ b/result.xlsx
@@ -6560,7 +6560,7 @@
     <numFmt numFmtId="166" formatCode="000000000"/>
     <numFmt numFmtId="167" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6572,14 +6572,7 @@
       <b/>
       <i/>
       <sz val="25"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -6591,14 +6584,27 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma ??????????"/>
       <family val="2"/>
     </font>
@@ -6771,29 +6777,14 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6801,76 +6792,91 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -7206,7 +7212,7 @@
     <col min="8" max="8" style="42" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="35.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7218,7 +7224,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="7"/>
@@ -7228,7 +7234,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="72" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -7240,7 +7246,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
@@ -7250,7 +7256,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -7262,7 +7268,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -7274,7 +7280,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
@@ -7284,7 +7290,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
@@ -7294,7 +7300,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
@@ -7312,7 +7318,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
@@ -7330,7 +7336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
@@ -7356,7 +7362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
@@ -7382,7 +7388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="28" t="s">
         <v>10</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="28" t="s">
         <v>18</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="28" t="s">
         <v>18</v>
       </c>
@@ -7486,7 +7492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="28" t="s">
         <v>18</v>
       </c>
@@ -7512,7 +7518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
@@ -7538,7 +7544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="28" t="s">
         <v>18</v>
       </c>
@@ -7564,7 +7570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
@@ -7590,7 +7596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A21" s="28" t="s">
         <v>18</v>
       </c>
@@ -7616,7 +7622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A22" s="28" t="s">
         <v>18</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A23" s="28" t="s">
         <v>18</v>
       </c>
@@ -7668,7 +7674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A24" s="28" t="s">
         <v>18</v>
       </c>
@@ -7694,7 +7700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="38.25" customFormat="1" s="1">
       <c r="A25" s="28" t="s">
         <v>18</v>
       </c>
@@ -7720,7 +7726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A26" s="28" t="s">
         <v>18</v>
       </c>
@@ -7746,7 +7752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A27" s="28" t="s">
         <v>18</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A28" s="28" t="s">
         <v>18</v>
       </c>
@@ -7798,7 +7804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A29" s="28" t="s">
         <v>18</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A30" s="28" t="s">
         <v>18</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A31" s="28" t="s">
         <v>18</v>
       </c>
@@ -7876,7 +7882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="10.949999999999998" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A32" s="28" t="s">
         <v>18</v>
       </c>
@@ -7902,7 +7908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="22.05" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A33" s="28" t="s">
         <v>18</v>
       </c>
@@ -7928,7 +7934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A34" s="28" t="s">
         <v>18</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="22.05" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A35" s="28" t="s">
         <v>18</v>
       </c>
